--- a/data/trans_dic/P33B_R1-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P33B_R1-Provincia-trans_dic.xlsx
@@ -564,7 +564,7 @@
         </is>
       </c>
       <c r="C4" s="5" t="n">
-        <v>0.08914022541349842</v>
+        <v>0.08914022541349843</v>
       </c>
       <c r="D4" s="5" t="n">
         <v>0.1431106783756944</v>
@@ -581,13 +581,13 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.06257505701981128</v>
+        <v>0.06195326078774202</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.1149646955348069</v>
+        <v>0.1151080582440825</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.09731618858800795</v>
+        <v>0.09663703401822675</v>
       </c>
     </row>
     <row r="6">
@@ -598,13 +598,13 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.1228821215075828</v>
+        <v>0.124587420260581</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.1724025431260664</v>
+        <v>0.1731829937763368</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.1361278457170653</v>
+        <v>0.1386602137684519</v>
       </c>
     </row>
     <row r="7">
@@ -622,10 +622,10 @@
         <v>0.07621189471427368</v>
       </c>
       <c r="D7" s="5" t="n">
-        <v>0.1076580844739406</v>
+        <v>0.1076580844739405</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>0.09216631413747607</v>
+        <v>0.09216631413747609</v>
       </c>
     </row>
     <row r="8">
@@ -636,13 +636,13 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.05250154099683037</v>
+        <v>0.05304363587085295</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.08683925416703847</v>
+        <v>0.08553102315470648</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.07489377295180832</v>
+        <v>0.07541849331329276</v>
       </c>
     </row>
     <row r="9">
@@ -653,13 +653,13 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.1094086802378591</v>
+        <v>0.1097852875974582</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.1312847272584965</v>
+        <v>0.1314575224101549</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.1115304114316083</v>
+        <v>0.1118817280535013</v>
       </c>
     </row>
     <row r="10">
@@ -691,13 +691,13 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.1078470516105881</v>
+        <v>0.1063714677676011</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.1845249923322896</v>
+        <v>0.1830006788156931</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.1565064062660945</v>
+        <v>0.155700245564686</v>
       </c>
     </row>
     <row r="12">
@@ -708,13 +708,13 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.1828414195265212</v>
+        <v>0.1818837552105956</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.2568458206955778</v>
+        <v>0.2543873454839595</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.2056014715536782</v>
+        <v>0.2040845289372467</v>
       </c>
     </row>
     <row r="13">
@@ -735,7 +735,7 @@
         <v>0.2253313758782924</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>0.1820222221174117</v>
+        <v>0.1820222221174116</v>
       </c>
     </row>
     <row r="14">
@@ -746,13 +746,13 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.09449555630291585</v>
+        <v>0.09658025711175047</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.1901526974795302</v>
+        <v>0.1890432816115637</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.1570076802335108</v>
+        <v>0.1555806067124623</v>
       </c>
     </row>
     <row r="15">
@@ -763,13 +763,13 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.1758005519170459</v>
+        <v>0.1800623086539409</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.2669392082370938</v>
+        <v>0.2642584901970835</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.2135090546680671</v>
+        <v>0.2116863851331836</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.04642482413795748</v>
+        <v>0.04610361611103313</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.08327831284199889</v>
+        <v>0.08754452627733304</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.07381409587083082</v>
+        <v>0.07301512696489598</v>
       </c>
     </row>
     <row r="18">
@@ -818,13 +818,13 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.1049805884261888</v>
+        <v>0.103631283379507</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.1384669080022917</v>
+        <v>0.1411135491287137</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.1118751762369216</v>
+        <v>0.1126121342286164</v>
       </c>
     </row>
     <row r="19">
@@ -842,7 +842,7 @@
         <v>0.1111328036532465</v>
       </c>
       <c r="D19" s="5" t="n">
-        <v>0.238449416905748</v>
+        <v>0.2384494169057479</v>
       </c>
       <c r="E19" s="5" t="n">
         <v>0.1739625109494437</v>
@@ -856,13 +856,13 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.07875448789707029</v>
+        <v>0.08022160714101306</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.2029865281615061</v>
+        <v>0.2031572689254081</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.1495465192082366</v>
+        <v>0.1482769244987429</v>
       </c>
     </row>
     <row r="21">
@@ -873,13 +873,13 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.1423816355303465</v>
+        <v>0.147973197144193</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.2813273801435162</v>
+        <v>0.2774025273653762</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.1981687401899109</v>
+        <v>0.2007648679056479</v>
       </c>
     </row>
     <row r="22">
@@ -911,13 +911,13 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.09639744538896566</v>
+        <v>0.09624274586883608</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.1979707809067028</v>
+        <v>0.1978827285450978</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.1555608933970646</v>
+        <v>0.15533810220652</v>
       </c>
     </row>
     <row r="24">
@@ -928,13 +928,13 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.1520882320941765</v>
+        <v>0.1566766743957433</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.2560002229925002</v>
+        <v>0.2522986622565314</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.1979828707510302</v>
+        <v>0.1950032370916247</v>
       </c>
     </row>
     <row r="25">
@@ -952,7 +952,7 @@
         <v>0.1936756462256233</v>
       </c>
       <c r="D25" s="5" t="n">
-        <v>0.3081452769128036</v>
+        <v>0.3081452769128037</v>
       </c>
       <c r="E25" s="5" t="n">
         <v>0.2520538651575953</v>
@@ -966,13 +966,13 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>0.1663039934805025</v>
+        <v>0.1684334237275333</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>0.2836451812100304</v>
+        <v>0.2836168363698698</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>0.2342269131740542</v>
+        <v>0.2321833991016653</v>
       </c>
     </row>
     <row r="27">
@@ -983,13 +983,13 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>0.2222665865937231</v>
+        <v>0.2202753379292601</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>0.3361200820708685</v>
+        <v>0.3384323873464467</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>0.2728364466982827</v>
+        <v>0.2720087010765395</v>
       </c>
     </row>
     <row r="28">
@@ -1021,13 +1021,13 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>0.1145995139731708</v>
+        <v>0.1162167825496997</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>0.2010795273596645</v>
+        <v>0.2018290135193979</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>0.1633578662870034</v>
+        <v>0.1630404466656531</v>
       </c>
     </row>
     <row r="30">
@@ -1038,13 +1038,13 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>0.1380317157736684</v>
+        <v>0.1392263705657714</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>0.2248343909966031</v>
+        <v>0.2244563118292672</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>0.1790780461591763</v>
+        <v>0.1797387385654656</v>
       </c>
     </row>
     <row r="31">
@@ -1190,13 +1190,13 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>19952</v>
+        <v>19753</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>36336</v>
+        <v>36381</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>61787</v>
+        <v>61355</v>
       </c>
     </row>
     <row r="7">
@@ -1207,13 +1207,13 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>39180</v>
+        <v>39724</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>54490</v>
+        <v>54736</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>86428</v>
+        <v>88036</v>
       </c>
     </row>
     <row r="8">
@@ -1262,13 +1262,13 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>27860</v>
+        <v>28147</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>47457</v>
+        <v>46742</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>80671</v>
+        <v>81236</v>
       </c>
     </row>
     <row r="11">
@@ -1279,13 +1279,13 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>58057</v>
+        <v>58257</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>71746</v>
+        <v>71841</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>120134</v>
+        <v>120512</v>
       </c>
     </row>
     <row r="12">
@@ -1334,13 +1334,13 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>34079</v>
+        <v>33613</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>65557</v>
+        <v>65015</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>105058</v>
+        <v>104516</v>
       </c>
     </row>
     <row r="15">
@@ -1351,13 +1351,13 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>57777</v>
+        <v>57474</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>91251</v>
+        <v>90377</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>138013</v>
+        <v>136995</v>
       </c>
     </row>
     <row r="16">
@@ -1406,13 +1406,13 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>35261</v>
+        <v>36038</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>80237</v>
+        <v>79769</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>124838</v>
+        <v>123703</v>
       </c>
     </row>
     <row r="19">
@@ -1423,13 +1423,13 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>65599</v>
+        <v>67189</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>112638</v>
+        <v>111507</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>169763</v>
+        <v>168313</v>
       </c>
     </row>
     <row r="20">
@@ -1478,13 +1478,13 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>9548</v>
+        <v>9482</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>18889</v>
+        <v>19857</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>31924</v>
+        <v>31578</v>
       </c>
     </row>
     <row r="23">
@@ -1495,13 +1495,13 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>21591</v>
+        <v>21313</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>31407</v>
+        <v>32008</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>48385</v>
+        <v>48703</v>
       </c>
     </row>
     <row r="24">
@@ -1550,13 +1550,13 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>21319</v>
+        <v>21717</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>53538</v>
+        <v>53583</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>79926</v>
+        <v>79248</v>
       </c>
     </row>
     <row r="27">
@@ -1567,13 +1567,13 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>38544</v>
+        <v>40057</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>74200</v>
+        <v>73165</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>105913</v>
+        <v>107300</v>
       </c>
     </row>
     <row r="28">
@@ -1622,13 +1622,13 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>69272</v>
+        <v>69161</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>152845</v>
+        <v>152777</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>231889</v>
+        <v>231557</v>
       </c>
     </row>
     <row r="31">
@@ -1639,13 +1639,13 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>109291</v>
+        <v>112589</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>197647</v>
+        <v>194789</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>295126</v>
+        <v>290684</v>
       </c>
     </row>
     <row r="32">
@@ -1694,13 +1694,13 @@
         </is>
       </c>
       <c r="C34" s="6" t="n">
-        <v>132723</v>
+        <v>134422</v>
       </c>
       <c r="D34" s="6" t="n">
-        <v>235598</v>
+        <v>235575</v>
       </c>
       <c r="E34" s="6" t="n">
-        <v>381481</v>
+        <v>378153</v>
       </c>
     </row>
     <row r="35">
@@ -1711,13 +1711,13 @@
         </is>
       </c>
       <c r="C35" s="6" t="n">
-        <v>177385</v>
+        <v>175796</v>
       </c>
       <c r="D35" s="6" t="n">
-        <v>279184</v>
+        <v>281105</v>
       </c>
       <c r="E35" s="6" t="n">
-        <v>444364</v>
+        <v>443015</v>
       </c>
     </row>
     <row r="36">
@@ -1766,13 +1766,13 @@
         </is>
       </c>
       <c r="C38" s="6" t="n">
-        <v>404729</v>
+        <v>410440</v>
       </c>
       <c r="D38" s="6" t="n">
-        <v>750636</v>
+        <v>753434</v>
       </c>
       <c r="E38" s="6" t="n">
-        <v>1186748</v>
+        <v>1184442</v>
       </c>
     </row>
     <row r="39">
@@ -1783,13 +1783,13 @@
         </is>
       </c>
       <c r="C39" s="6" t="n">
-        <v>487484</v>
+        <v>491703</v>
       </c>
       <c r="D39" s="6" t="n">
-        <v>839314</v>
+        <v>837902</v>
       </c>
       <c r="E39" s="6" t="n">
-        <v>1300950</v>
+        <v>1305750</v>
       </c>
     </row>
     <row r="40">
